--- a/hardware/node_unit_pcb/production_files/BOM.xlsx
+++ b/hardware/node_unit_pcb/production_files/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\GitHub\PCBConnect\hardware\production_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\GitHub\sillycat\hardware\node_unit_pcb\production_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="224">
-  <si>
-    <t>INDUCTOR, 10µH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="254">
+  <si>
+    <t>INDUCTOR, 10µH 20%</t>
   </si>
   <si>
     <t>Buck_Boost, LTC3531-3.3</t>
@@ -65,6 +65,9 @@
     <t>RESISTOR, 0.1Ω 1%</t>
   </si>
   <si>
+    <t>MOSFET_P, 2SB1182</t>
+  </si>
+  <si>
     <t>RTC, MCP79510</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>memory, S25FL032P</t>
   </si>
   <si>
+    <t>headers, Pogo-connector</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
@@ -173,7 +179,7 @@
     <t>C3, C8</t>
   </si>
   <si>
-    <t>R10, R12</t>
+    <t>R6, R10, R12, R15</t>
   </si>
   <si>
     <t>X2</t>
@@ -227,7 +233,10 @@
     <t>U23</t>
   </si>
   <si>
-    <t>IPC-7351\Chip-R1210</t>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>IPC-7351\Chip-R1812</t>
   </si>
   <si>
     <t>Ultiboard\TSOT-23</t>
@@ -290,6 +299,9 @@
     <t>Ultiboard\S25FL164K</t>
   </si>
   <si>
+    <t>Ultiboard\pogo_connector_female_2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -329,7 +341,85 @@
     <t>Digi-Jey</t>
   </si>
   <si>
-    <t>http://www.digikey.se/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=176743803&amp;uq=635735628133633582</t>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>41,03</t>
+  </si>
+  <si>
+    <t>3,38</t>
+  </si>
+  <si>
+    <t>65,94</t>
+  </si>
+  <si>
+    <t>1,01</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>4,06</t>
+  </si>
+  <si>
+    <t>4,33</t>
+  </si>
+  <si>
+    <t>3,56</t>
+  </si>
+  <si>
+    <t>5,63</t>
+  </si>
+  <si>
+    <t>9,04</t>
+  </si>
+  <si>
+    <t>11,92</t>
+  </si>
+  <si>
+    <t>0,92</t>
+  </si>
+  <si>
+    <t>2,67</t>
+  </si>
+  <si>
+    <t>5,432</t>
+  </si>
+  <si>
+    <t>40,88</t>
+  </si>
+  <si>
+    <t>1,07</t>
+  </si>
+  <si>
+    <t>2,31</t>
+  </si>
+  <si>
+    <t>48,93</t>
+  </si>
+  <si>
+    <t>34,13</t>
+  </si>
+  <si>
+    <t>96,00</t>
+  </si>
+  <si>
+    <t>2,21</t>
+  </si>
+  <si>
+    <t>2,77</t>
+  </si>
+  <si>
+    <t>4,43</t>
+  </si>
+  <si>
+    <t>0,82</t>
+  </si>
+  <si>
+    <t>10,15</t>
+  </si>
+  <si>
+    <t>http://www.digikey.se/product-detail/en/murata-electronics-north-america/LQH43CN100K03L/490-2519-2-ND/599911</t>
   </si>
   <si>
     <t>http://www.linear.com/product/LTC3531</t>
@@ -419,60 +509,63 @@
     <t>http://www.digikey.se/product-detail/en/S25FL032P0XMFI013/1274-1170-1-ND/5222356</t>
   </si>
   <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>Cantherm</t>
+  </si>
+  <si>
+    <t>Fairchild Semiconductor</t>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+  </si>
+  <si>
+    <t>Assmann WSW Components</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics America, Inc</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>EPSON</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>HOPE MICROELECTRONICS</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>Maxdetect</t>
+  </si>
+  <si>
     <t>Kemet</t>
   </si>
   <si>
-    <t>Linear Technology</t>
-  </si>
-  <si>
-    <t>Murata Electronics North America</t>
-  </si>
-  <si>
-    <t>Susumu</t>
-  </si>
-  <si>
-    <t>Cantherm</t>
-  </si>
-  <si>
-    <t>Fairchild Semiconductor</t>
-  </si>
-  <si>
-    <t>AVX Corporation</t>
-  </si>
-  <si>
-    <t>Assmann WSW Components</t>
-  </si>
-  <si>
-    <t>Rohm Semiconductor</t>
-  </si>
-  <si>
-    <t>Microchip Technology</t>
-  </si>
-  <si>
-    <t>Samsung Electro-Mechanics America, Inc</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics Inc</t>
-  </si>
-  <si>
-    <t>EPSON</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>HOPE MICROELECTRONICS</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>Atmel</t>
-  </si>
-  <si>
-    <t>Maxdetect</t>
-  </si>
-  <si>
     <t>Riedon</t>
   </si>
   <si>
@@ -488,7 +581,7 @@
     <t>Spansion</t>
   </si>
   <si>
-    <t>L1210R100MDWIT</t>
+    <t>LQH43CN100K03L</t>
   </si>
   <si>
     <t>LTC3531ES6-3.3#TRMPBF</t>
@@ -575,7 +668,7 @@
     <t>S25FL032P0XMFI013</t>
   </si>
   <si>
-    <t>FIXED IND 10UH 900MA 133 MOHM</t>
+    <t>490-2519-2-ND</t>
   </si>
   <si>
     <t>LTC3531ES6-3.3#TRMPBFCT-ND</t>
@@ -693,9 +786,6 @@
   </si>
   <si>
     <t>Vendor Part No.</t>
-  </si>
-  <si>
-    <t>2SB1182</t>
   </si>
 </sst>
 </file>
@@ -731,10 +821,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,61 +1107,54 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1083,37 +1165,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7.39</v>
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1124,37 +1206,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="2">
-        <v>41.03</v>
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1165,37 +1247,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3.38</v>
+        <v>92</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1206,37 +1288,37 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="2">
-        <v>65.94</v>
+        <v>92</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1247,37 +1329,37 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.01</v>
+        <v>92</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1288,37 +1370,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1.6</v>
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1329,37 +1411,37 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.38</v>
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1370,37 +1452,37 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4.0599999999999996</v>
+        <v>92</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1411,37 +1493,37 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.01</v>
+        <v>92</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1452,37 +1534,37 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4.33</v>
+        <v>92</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1493,37 +1575,37 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3.56</v>
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1534,37 +1616,37 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5.63</v>
+        <v>92</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1575,37 +1657,37 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1613,40 +1695,40 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="2">
-        <v>9.0399999999999991</v>
+        <v>92</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,40 +1736,40 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="2">
-        <v>11.92</v>
+        <v>92</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1695,81 +1777,81 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.92</v>
+        <v>92</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="2">
-        <v>2.67</v>
+        <v>92</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1777,40 +1859,40 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="2">
-        <v>5.4320000000000004</v>
+        <v>92</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1818,40 +1900,40 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1859,40 +1941,40 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="2">
-        <v>40.880000000000003</v>
+        <v>92</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1900,40 +1982,40 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.07</v>
+        <v>92</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1941,40 +2023,40 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.31</v>
+        <v>92</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1982,40 +2064,40 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1.01</v>
+        <v>92</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2023,40 +2105,40 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1.01</v>
+        <v>92</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2064,40 +2146,40 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="2">
-        <v>48.93</v>
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2105,40 +2187,40 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="2">
-        <v>34.130000000000003</v>
+        <v>92</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2146,40 +2228,40 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="2">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2187,40 +2269,40 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2.21</v>
+        <v>92</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2228,40 +2310,40 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2.77</v>
+        <v>92</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,40 +2351,40 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4.43</v>
+        <v>92</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2310,40 +2392,40 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1.07</v>
+        <v>92</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2351,40 +2433,40 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="2">
-        <v>4.33</v>
+        <v>92</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2392,40 +2474,40 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.82</v>
+        <v>92</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2433,55 +2515,82 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="2">
-        <v>10.15</v>
+        <v>92</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
